--- a/natmiOut/OldD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd69</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.18745851884591</v>
+        <v>9.05649</v>
       </c>
       <c r="H2">
-        <v>8.18745851884591</v>
+        <v>27.16947</v>
       </c>
       <c r="I2">
-        <v>0.05393728159516045</v>
+        <v>0.05539951095224582</v>
       </c>
       <c r="J2">
-        <v>0.05393728159516045</v>
+        <v>0.0774334825073681</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>10.3288821998346</v>
+        <v>0.001620666666666667</v>
       </c>
       <c r="N2">
-        <v>10.3288821998346</v>
+        <v>0.004862</v>
       </c>
       <c r="O2">
-        <v>0.4789869895585893</v>
+        <v>4.949959039648896E-05</v>
       </c>
       <c r="P2">
-        <v>0.4789869895585893</v>
+        <v>4.954707633626946E-05</v>
       </c>
       <c r="Q2">
-        <v>84.56729455719169</v>
+        <v>0.01467755146</v>
       </c>
       <c r="R2">
-        <v>84.56729455719169</v>
+        <v>0.13209796314</v>
       </c>
       <c r="S2">
-        <v>0.02583525613623981</v>
+        <v>2.742253100301972E-06</v>
       </c>
       <c r="T2">
-        <v>0.02583525613623981</v>
+        <v>3.836602668775754E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.18745851884591</v>
+        <v>9.05649</v>
       </c>
       <c r="H3">
-        <v>8.18745851884591</v>
+        <v>27.16947</v>
       </c>
       <c r="I3">
-        <v>0.05393728159516045</v>
+        <v>0.05539951095224582</v>
       </c>
       <c r="J3">
-        <v>0.05393728159516045</v>
+        <v>0.0774334825073681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.1412173727476</v>
+        <v>0.1285833333333333</v>
       </c>
       <c r="N3">
-        <v>11.1412173727476</v>
+        <v>0.38575</v>
       </c>
       <c r="O3">
-        <v>0.5166578595964316</v>
+        <v>0.003927286506673306</v>
       </c>
       <c r="P3">
-        <v>0.5166578595964316</v>
+        <v>0.003931054030587401</v>
       </c>
       <c r="Q3">
-        <v>91.21825508881638</v>
+        <v>1.1645136725</v>
       </c>
       <c r="R3">
-        <v>91.21825508881638</v>
+        <v>10.4806230525</v>
       </c>
       <c r="S3">
-        <v>0.0278671204614056</v>
+        <v>0.000217569751839055</v>
       </c>
       <c r="T3">
-        <v>0.0278671204614056</v>
+        <v>0.0003043952035130084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.18745851884591</v>
+        <v>9.05649</v>
       </c>
       <c r="H4">
-        <v>8.18745851884591</v>
+        <v>27.16947</v>
       </c>
       <c r="I4">
-        <v>0.05393728159516045</v>
+        <v>0.05539951095224582</v>
       </c>
       <c r="J4">
-        <v>0.05393728159516045</v>
+        <v>0.0774334825073681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09391453425854809</v>
+        <v>20.26120333333333</v>
       </c>
       <c r="N4">
-        <v>0.09391453425854809</v>
+        <v>60.78361</v>
       </c>
       <c r="O4">
-        <v>0.004355150844979071</v>
+        <v>0.6188325376017957</v>
       </c>
       <c r="P4">
-        <v>0.004355150844979071</v>
+        <v>0.6194261959407716</v>
       </c>
       <c r="Q4">
-        <v>0.7689213535585956</v>
+        <v>183.4953853763</v>
       </c>
       <c r="R4">
-        <v>0.7689213535585956</v>
+        <v>1651.4584683867</v>
       </c>
       <c r="S4">
-        <v>0.0002349049975150371</v>
+        <v>0.03428301994447675</v>
       </c>
       <c r="T4">
-        <v>0.0002349049975150371</v>
+        <v>0.04796432750798531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.6899412450799</v>
+        <v>9.05649</v>
       </c>
       <c r="H5">
-        <v>11.6899412450799</v>
+        <v>27.16947</v>
       </c>
       <c r="I5">
-        <v>0.07701091264345516</v>
+        <v>0.05539951095224582</v>
       </c>
       <c r="J5">
-        <v>0.07701091264345516</v>
+        <v>0.0774334825073681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.3288821998346</v>
+        <v>12.25546733333333</v>
       </c>
       <c r="N5">
-        <v>10.3288821998346</v>
+        <v>36.766402</v>
       </c>
       <c r="O5">
-        <v>0.4789869895585893</v>
+        <v>0.3743154749799779</v>
       </c>
       <c r="P5">
-        <v>0.4789869895585893</v>
+        <v>0.3746745632463945</v>
       </c>
       <c r="Q5">
-        <v>120.7440260434181</v>
+        <v>110.99151734966</v>
       </c>
       <c r="R5">
-        <v>120.7440260434181</v>
+        <v>998.9236561469399</v>
       </c>
       <c r="S5">
-        <v>0.03688722521024809</v>
+        <v>0.02073689425574838</v>
       </c>
       <c r="T5">
-        <v>0.03688722521024809</v>
+        <v>0.02901235623909548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6899412450799</v>
+        <v>9.05649</v>
       </c>
       <c r="H6">
-        <v>11.6899412450799</v>
+        <v>27.16947</v>
       </c>
       <c r="I6">
-        <v>0.07701091264345516</v>
+        <v>0.05539951095224582</v>
       </c>
       <c r="J6">
-        <v>0.07701091264345516</v>
+        <v>0.0774334825073681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1412173727476</v>
+        <v>0.094137</v>
       </c>
       <c r="N6">
-        <v>11.1412173727476</v>
+        <v>0.188274</v>
       </c>
       <c r="O6">
-        <v>0.5166578595964316</v>
+        <v>0.002875201321156488</v>
       </c>
       <c r="P6">
-        <v>0.5166578595964316</v>
+        <v>0.001918639705910077</v>
       </c>
       <c r="Q6">
-        <v>130.2401764860829</v>
+        <v>0.85255079913</v>
       </c>
       <c r="R6">
-        <v>130.2401764860829</v>
+        <v>5.11530479478</v>
       </c>
       <c r="S6">
-        <v>0.03978829329193532</v>
+        <v>0.0001592847470813205</v>
       </c>
       <c r="T6">
-        <v>0.03978829329193532</v>
+        <v>0.0001485669541055299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6899412450799</v>
+        <v>14.62481233333333</v>
       </c>
       <c r="H7">
-        <v>11.6899412450799</v>
+        <v>43.874437</v>
       </c>
       <c r="I7">
-        <v>0.07701091264345516</v>
+        <v>0.08946152991225516</v>
       </c>
       <c r="J7">
-        <v>0.07701091264345516</v>
+        <v>0.1250429415796526</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09391453425854809</v>
+        <v>0.001620666666666667</v>
       </c>
       <c r="N7">
-        <v>0.09391453425854809</v>
+        <v>0.004862</v>
       </c>
       <c r="O7">
-        <v>0.004355150844979071</v>
+        <v>4.949959039648896E-05</v>
       </c>
       <c r="P7">
-        <v>0.004355150844979071</v>
+        <v>4.954707633626946E-05</v>
       </c>
       <c r="Q7">
-        <v>1.097855387541471</v>
+        <v>0.02370194585488889</v>
       </c>
       <c r="R7">
-        <v>1.097855387541471</v>
+        <v>0.213317512694</v>
       </c>
       <c r="S7">
-        <v>0.0003353941412717532</v>
+        <v>4.428309086899876E-06</v>
       </c>
       <c r="T7">
-        <v>0.0003353941412717532</v>
+        <v>6.19551217175873E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.918506086482</v>
+        <v>14.62481233333333</v>
       </c>
       <c r="H8">
-        <v>131.918506086482</v>
+        <v>43.874437</v>
       </c>
       <c r="I8">
-        <v>0.8690518057613844</v>
+        <v>0.08946152991225516</v>
       </c>
       <c r="J8">
-        <v>0.8690518057613844</v>
+        <v>0.1250429415796526</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>10.3288821998346</v>
+        <v>0.1285833333333333</v>
       </c>
       <c r="N8">
-        <v>10.3288821998346</v>
+        <v>0.38575</v>
       </c>
       <c r="O8">
-        <v>0.4789869895585893</v>
+        <v>0.003927286506673306</v>
       </c>
       <c r="P8">
-        <v>0.4789869895585893</v>
+        <v>0.003931054030587401</v>
       </c>
       <c r="Q8">
-        <v>1362.570709345436</v>
+        <v>1.880507119194444</v>
       </c>
       <c r="R8">
-        <v>1362.570709345436</v>
+        <v>16.92456407275</v>
       </c>
       <c r="S8">
-        <v>0.4162645082121014</v>
+        <v>0.00035134105929075</v>
       </c>
       <c r="T8">
-        <v>0.4162645082121014</v>
+        <v>0.0004915505594931983</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.918506086482</v>
+        <v>14.62481233333333</v>
       </c>
       <c r="H9">
-        <v>131.918506086482</v>
+        <v>43.874437</v>
       </c>
       <c r="I9">
-        <v>0.8690518057613844</v>
+        <v>0.08946152991225516</v>
       </c>
       <c r="J9">
-        <v>0.8690518057613844</v>
+        <v>0.1250429415796526</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1412173727476</v>
+        <v>20.26120333333333</v>
       </c>
       <c r="N9">
-        <v>11.1412173727476</v>
+        <v>60.78361</v>
       </c>
       <c r="O9">
-        <v>0.5166578595964316</v>
+        <v>0.6188325376017957</v>
       </c>
       <c r="P9">
-        <v>0.5166578595964316</v>
+        <v>0.6194261959407716</v>
       </c>
       <c r="Q9">
-        <v>1469.732751797623</v>
+        <v>296.3162963975078</v>
       </c>
       <c r="R9">
-        <v>1469.732751797623</v>
+        <v>2666.84666757757</v>
       </c>
       <c r="S9">
-        <v>0.4490024458430907</v>
+        <v>0.05536170557333981</v>
       </c>
       <c r="T9">
-        <v>0.4490024458430907</v>
+        <v>0.07745487363192835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.62481233333333</v>
+      </c>
+      <c r="H10">
+        <v>43.874437</v>
+      </c>
+      <c r="I10">
+        <v>0.08946152991225516</v>
+      </c>
+      <c r="J10">
+        <v>0.1250429415796526</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.25546733333333</v>
+      </c>
+      <c r="N10">
+        <v>36.766402</v>
+      </c>
+      <c r="O10">
+        <v>0.3743154749799779</v>
+      </c>
+      <c r="P10">
+        <v>0.3746745632463945</v>
+      </c>
+      <c r="Q10">
+        <v>179.2339098072971</v>
+      </c>
+      <c r="R10">
+        <v>1613.105188265674</v>
+      </c>
+      <c r="S10">
+        <v>0.03348683506154129</v>
+      </c>
+      <c r="T10">
+        <v>0.04685040952340076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.62481233333333</v>
+      </c>
+      <c r="H11">
+        <v>43.874437</v>
+      </c>
+      <c r="I11">
+        <v>0.08946152991225516</v>
+      </c>
+      <c r="J11">
+        <v>0.1250429415796526</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.094137</v>
+      </c>
+      <c r="N11">
+        <v>0.188274</v>
+      </c>
+      <c r="O11">
+        <v>0.002875201321156488</v>
+      </c>
+      <c r="P11">
+        <v>0.001918639705910077</v>
+      </c>
+      <c r="Q11">
+        <v>1.376735958623</v>
+      </c>
+      <c r="R11">
+        <v>8.260415751738</v>
+      </c>
+      <c r="S11">
+        <v>0.0002572199089963966</v>
+      </c>
+      <c r="T11">
+        <v>0.0002399123526585156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09339233333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.280177</v>
+      </c>
+      <c r="I12">
+        <v>0.0005712908194406214</v>
+      </c>
+      <c r="J12">
+        <v>0.0007985095339904265</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.001620666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.004862</v>
+      </c>
+      <c r="O12">
+        <v>4.949959039648896E-05</v>
+      </c>
+      <c r="P12">
+        <v>4.954707633626946E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.0001513578415555556</v>
+      </c>
+      <c r="R12">
+        <v>0.001362220574</v>
+      </c>
+      <c r="S12">
+        <v>2.827866155958529E-08</v>
+      </c>
+      <c r="T12">
+        <v>3.956381283586262E-08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09339233333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.280177</v>
+      </c>
+      <c r="I13">
+        <v>0.0005712908194406214</v>
+      </c>
+      <c r="J13">
+        <v>0.0007985095339904265</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1285833333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.38575</v>
+      </c>
+      <c r="O13">
+        <v>0.003927286506673306</v>
+      </c>
+      <c r="P13">
+        <v>0.003931054030587401</v>
+      </c>
+      <c r="Q13">
+        <v>0.01200869752777778</v>
+      </c>
+      <c r="R13">
+        <v>0.10807827775</v>
+      </c>
+      <c r="S13">
+        <v>2.243622726575488E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.138984122055534E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.09339233333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.280177</v>
+      </c>
+      <c r="I14">
+        <v>0.0005712908194406214</v>
+      </c>
+      <c r="J14">
+        <v>0.0007985095339904265</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20.26120333333333</v>
+      </c>
+      <c r="N14">
+        <v>60.78361</v>
+      </c>
+      <c r="O14">
+        <v>0.6188325376017957</v>
+      </c>
+      <c r="P14">
+        <v>0.6194261959407716</v>
+      </c>
+      <c r="Q14">
+        <v>1.892241055441111</v>
+      </c>
+      <c r="R14">
+        <v>17.03016949897</v>
+      </c>
+      <c r="S14">
+        <v>0.000353533347503049</v>
+      </c>
+      <c r="T14">
+        <v>0.0004946177230621282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.09339233333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.280177</v>
+      </c>
+      <c r="I15">
+        <v>0.0005712908194406214</v>
+      </c>
+      <c r="J15">
+        <v>0.0007985095339904265</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.25546733333333</v>
+      </c>
+      <c r="N15">
+        <v>36.766402</v>
+      </c>
+      <c r="O15">
+        <v>0.3743154749799779</v>
+      </c>
+      <c r="P15">
+        <v>0.3746745632463945</v>
+      </c>
+      <c r="Q15">
+        <v>1.144566690350445</v>
+      </c>
+      <c r="R15">
+        <v>10.301100213154</v>
+      </c>
+      <c r="S15">
+        <v>0.000213842994430617</v>
+      </c>
+      <c r="T15">
+        <v>0.0002991812108959451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09339233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.280177</v>
+      </c>
+      <c r="I16">
+        <v>0.0005712908194406214</v>
+      </c>
+      <c r="J16">
+        <v>0.0007985095339904265</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.094137</v>
+      </c>
+      <c r="N16">
+        <v>0.188274</v>
+      </c>
+      <c r="O16">
+        <v>0.002875201321156488</v>
+      </c>
+      <c r="P16">
+        <v>0.001918639705910077</v>
+      </c>
+      <c r="Q16">
+        <v>0.008791674083</v>
+      </c>
+      <c r="R16">
+        <v>0.052750044498</v>
+      </c>
+      <c r="S16">
+        <v>1.642576118820247E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.532052097461785E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1482806666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.444842</v>
+      </c>
+      <c r="I17">
+        <v>0.0009070485825089314</v>
+      </c>
+      <c r="J17">
+        <v>0.001267807771941913</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.001620666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.004862</v>
+      </c>
+      <c r="O17">
+        <v>4.949959039648896E-05</v>
+      </c>
+      <c r="P17">
+        <v>4.954707633626946E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.0002403135337777778</v>
+      </c>
+      <c r="R17">
+        <v>0.002162821804</v>
+      </c>
+      <c r="S17">
+        <v>4.489853330390803E-08</v>
+      </c>
+      <c r="T17">
+        <v>6.281616845612167E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1482806666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.444842</v>
+      </c>
+      <c r="I18">
+        <v>0.0009070485825089314</v>
+      </c>
+      <c r="J18">
+        <v>0.001267807771941913</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1285833333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.38575</v>
+      </c>
+      <c r="O18">
+        <v>0.003927286506673306</v>
+      </c>
+      <c r="P18">
+        <v>0.003931054030587401</v>
+      </c>
+      <c r="Q18">
+        <v>0.01906642238888889</v>
+      </c>
+      <c r="R18">
+        <v>0.1715978015</v>
+      </c>
+      <c r="S18">
+        <v>3.562239658984476E-06</v>
+      </c>
+      <c r="T18">
+        <v>4.983820851902289E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>131.918506086482</v>
-      </c>
-      <c r="H10">
-        <v>131.918506086482</v>
-      </c>
-      <c r="I10">
-        <v>0.8690518057613844</v>
-      </c>
-      <c r="J10">
-        <v>0.8690518057613844</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.09391453425854809</v>
-      </c>
-      <c r="N10">
-        <v>0.09391453425854809</v>
-      </c>
-      <c r="O10">
-        <v>0.004355150844979071</v>
-      </c>
-      <c r="P10">
-        <v>0.004355150844979071</v>
-      </c>
-      <c r="Q10">
-        <v>12.3890650591954</v>
-      </c>
-      <c r="R10">
-        <v>12.3890650591954</v>
-      </c>
-      <c r="S10">
-        <v>0.003784851706192281</v>
-      </c>
-      <c r="T10">
-        <v>0.003784851706192281</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1482806666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.444842</v>
+      </c>
+      <c r="I19">
+        <v>0.0009070485825089314</v>
+      </c>
+      <c r="J19">
+        <v>0.001267807771941913</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.26120333333333</v>
+      </c>
+      <c r="N19">
+        <v>60.78361</v>
+      </c>
+      <c r="O19">
+        <v>0.6188325376017957</v>
+      </c>
+      <c r="P19">
+        <v>0.6194261959407716</v>
+      </c>
+      <c r="Q19">
+        <v>3.004344737735556</v>
+      </c>
+      <c r="R19">
+        <v>27.03910263962</v>
+      </c>
+      <c r="S19">
+        <v>0.0005613111760421138</v>
+      </c>
+      <c r="T19">
+        <v>0.0007853133453581244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1482806666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.444842</v>
+      </c>
+      <c r="I20">
+        <v>0.0009070485825089314</v>
+      </c>
+      <c r="J20">
+        <v>0.001267807771941913</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.25546733333333</v>
+      </c>
+      <c r="N20">
+        <v>36.766402</v>
+      </c>
+      <c r="O20">
+        <v>0.3743154749799779</v>
+      </c>
+      <c r="P20">
+        <v>0.3746745632463945</v>
+      </c>
+      <c r="Q20">
+        <v>1.817248866498222</v>
+      </c>
+      <c r="R20">
+        <v>16.355239798484</v>
+      </c>
+      <c r="S20">
+        <v>0.0003395223209917463</v>
+      </c>
+      <c r="T20">
+        <v>0.0004750153232327208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1482806666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.444842</v>
+      </c>
+      <c r="I21">
+        <v>0.0009070485825089314</v>
+      </c>
+      <c r="J21">
+        <v>0.001267807771941913</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.094137</v>
+      </c>
+      <c r="N21">
+        <v>0.188274</v>
+      </c>
+      <c r="O21">
+        <v>0.002875201321156488</v>
+      </c>
+      <c r="P21">
+        <v>0.001918639705910077</v>
+      </c>
+      <c r="Q21">
+        <v>0.013958697118</v>
+      </c>
+      <c r="R21">
+        <v>0.083752182708</v>
+      </c>
+      <c r="S21">
+        <v>2.607947282782799E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.432466330709142E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>139.5530165</v>
+      </c>
+      <c r="H22">
+        <v>279.106033</v>
+      </c>
+      <c r="I22">
+        <v>0.8536606197335495</v>
+      </c>
+      <c r="J22">
+        <v>0.7954572586070471</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.001620666666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.004862</v>
+      </c>
+      <c r="O22">
+        <v>4.949959039648896E-05</v>
+      </c>
+      <c r="P22">
+        <v>4.954707633626946E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.2261689220743334</v>
+      </c>
+      <c r="R22">
+        <v>1.357013532446</v>
+      </c>
+      <c r="S22">
+        <v>4.225585101442362E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.9412581514443E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>139.5530165</v>
+      </c>
+      <c r="H23">
+        <v>279.106033</v>
+      </c>
+      <c r="I23">
+        <v>0.8536606197335495</v>
+      </c>
+      <c r="J23">
+        <v>0.7954572586070471</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1285833333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.38575</v>
+      </c>
+      <c r="O23">
+        <v>0.003927286506673306</v>
+      </c>
+      <c r="P23">
+        <v>0.003931054030587401</v>
+      </c>
+      <c r="Q23">
+        <v>17.94419203829167</v>
+      </c>
+      <c r="R23">
+        <v>107.66515222975</v>
+      </c>
+      <c r="S23">
+        <v>0.003352569833157941</v>
+      </c>
+      <c r="T23">
+        <v>0.003126985462607237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>139.5530165</v>
+      </c>
+      <c r="H24">
+        <v>279.106033</v>
+      </c>
+      <c r="I24">
+        <v>0.8536606197335495</v>
+      </c>
+      <c r="J24">
+        <v>0.7954572586070471</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>20.26120333333333</v>
+      </c>
+      <c r="N24">
+        <v>60.78361</v>
+      </c>
+      <c r="O24">
+        <v>0.6188325376017957</v>
+      </c>
+      <c r="P24">
+        <v>0.6194261959407716</v>
+      </c>
+      <c r="Q24">
+        <v>2827.512043086522</v>
+      </c>
+      <c r="R24">
+        <v>16965.07225851913</v>
+      </c>
+      <c r="S24">
+        <v>0.528272967560434</v>
+      </c>
+      <c r="T24">
+        <v>0.4927270637324378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>139.5530165</v>
+      </c>
+      <c r="H25">
+        <v>279.106033</v>
+      </c>
+      <c r="I25">
+        <v>0.8536606197335495</v>
+      </c>
+      <c r="J25">
+        <v>0.7954572586070471</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.25546733333333</v>
+      </c>
+      <c r="N25">
+        <v>36.766402</v>
+      </c>
+      <c r="O25">
+        <v>0.3743154749799779</v>
+      </c>
+      <c r="P25">
+        <v>0.3746745632463945</v>
+      </c>
+      <c r="Q25">
+        <v>1710.287434983878</v>
+      </c>
+      <c r="R25">
+        <v>10261.72460990327</v>
+      </c>
+      <c r="S25">
+        <v>0.3195383803472659</v>
+      </c>
+      <c r="T25">
+        <v>0.2980376009497697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>139.5530165</v>
+      </c>
+      <c r="H26">
+        <v>279.106033</v>
+      </c>
+      <c r="I26">
+        <v>0.8536606197335495</v>
+      </c>
+      <c r="J26">
+        <v>0.7954572586070471</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.094137</v>
+      </c>
+      <c r="N26">
+        <v>0.188274</v>
+      </c>
+      <c r="O26">
+        <v>0.002875201321156488</v>
+      </c>
+      <c r="P26">
+        <v>0.001918639705910077</v>
+      </c>
+      <c r="Q26">
+        <v>13.1371023142605</v>
+      </c>
+      <c r="R26">
+        <v>52.548409257042</v>
+      </c>
+      <c r="S26">
+        <v>0.002454446141677167</v>
+      </c>
+      <c r="T26">
+        <v>0.001526195880717861</v>
       </c>
     </row>
   </sheetData>
